--- a/【提出】PM演習_外部設計書_矢吹研A班.xlsx
+++ b/【提出】PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oki\Documents\GitHub\-A-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\iwase\Documents\GitHub\-A-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -755,26 +755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加処理</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除処理</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品詳細画面</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
@@ -788,69 +768,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>削除した場合、番号を繰り上げる。</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弁当名に同じ名前がなければ、最も大きい番号に+1の番号で追加。</t>
-    <rPh sb="0" eb="2">
-      <t>ベントウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>モット</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品詳細ページ</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -971,92 +894,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンビニ選択機能</t>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オートフィルタを3か所に作り、今後コンビニが増えても対応できるようにする。</t>
-    <rPh sb="10" eb="11">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コンゴ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高</t>
-  </si>
-  <si>
-    <t>管理者ログイン</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力したIDとパスワードを成否判断処理に送る。</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力情報送信</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成否判断処理</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>処理</t>
@@ -1265,28 +1103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受け取ったIDとパスワードが合っているか判断し、ログイン判定を行う。</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本システムは、LANを経由したクライアントサーバ方式にてサービスを提供する。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -1337,25 +1153,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加ページ</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ページ</t>
-    <rPh sb="0" eb="2">
+    <t>　　　　削除</t>
+    <rPh sb="4" eb="6">
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　削除</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>管理者ログイン</t>
+  </si>
+  <si>
+    <t>入力情報送信</t>
+  </si>
+  <si>
+    <t>入力したIDとパスワードを成否判断処理に送る。</t>
+  </si>
+  <si>
+    <t>成否判断処理</t>
+  </si>
+  <si>
+    <t>受け取ったIDとパスワードが合っているか判断し、ログイン判定を行う。</t>
+  </si>
+  <si>
+    <t>追加ページ</t>
+  </si>
+  <si>
+    <t>追加処理</t>
+  </si>
+  <si>
+    <t>弁当名に同じ名前がなければ、最も大きい番号に+1の番号で追加。</t>
+  </si>
+  <si>
+    <t>削除ページ</t>
+  </si>
+  <si>
+    <t>削除処理</t>
+  </si>
+  <si>
+    <t>削除した場合、番号を繰り上げる。</t>
   </si>
 </sst>
 </file>
@@ -2097,13 +1932,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2112,16 +1941,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2133,7 +1965,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -26162,7 +25997,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
@@ -26361,7 +26196,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="78" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E10" s="78"/>
       <c r="F10" s="78"/>
@@ -28461,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" s="86"/>
       <c r="J1" s="86"/>
@@ -28507,7 +28342,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -28527,7 +28362,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29275,7 +29110,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -29366,7 +29201,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -29378,7 +29213,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -29386,7 +29221,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -29400,7 +29235,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -29420,7 +29255,7 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -29440,7 +29275,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -29517,7 +29352,7 @@
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="55" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -29982,8 +29817,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30120,20 +29955,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="92" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -30155,20 +29990,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89" t="s">
-        <v>79</v>
+      <c r="F8" s="89"/>
+      <c r="G8" s="88" t="s">
+        <v>74</v>
       </c>
-      <c r="H8" s="91"/>
-      <c r="I8" s="89" t="s">
-        <v>109</v>
+      <c r="H8" s="89"/>
+      <c r="I8" s="88" t="s">
+        <v>96</v>
       </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="89"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -30191,28 +30026,28 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="89" t="s">
-        <v>66</v>
+      <c r="E9" s="88" t="s">
+        <v>62</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89" t="s">
+      <c r="F9" s="89"/>
+      <c r="G9" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="89" t="s">
-        <v>78</v>
+      <c r="H9" s="89"/>
+      <c r="I9" s="88" t="s">
+        <v>73</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="89"/>
       <c r="M9" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" ref="P9:P21" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$24,IF(N9="中",$N$25,$N$26))*IF(O9="小",$O$24,IF(O9="中",$O$25,$O$26))))</f>
@@ -30227,26 +30062,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="89" t="s">
-        <v>72</v>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="88" t="s">
+        <v>67</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="89" t="s">
-        <v>94</v>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88" t="s">
+        <v>82</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="89"/>
       <c r="M10" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P10" s="9">
         <f>IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
@@ -30261,30 +30096,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="89" t="s">
-        <v>80</v>
+      <c r="E11" s="88" t="s">
+        <v>98</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="89" t="s">
-        <v>81</v>
+      <c r="F11" s="89"/>
+      <c r="G11" s="88" t="s">
+        <v>99</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="89"/>
       <c r="M11" s="22" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="P11" s="9">
         <f>IF(N11="",0,IF(O11="",0,IF(N11="低",$N$24,IF(N11="中",$N$25,$N$26))*IF(O11="小",$O$24,IF(O11="中",$O$25,$O$26))))</f>
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30295,32 +30132,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="89" t="s">
-        <v>84</v>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="88" t="s">
+        <v>101</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="89" t="s">
-        <v>86</v>
+      <c r="H12" s="89"/>
+      <c r="I12" s="88" t="s">
+        <v>102</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="89"/>
       <c r="M12" s="22" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="P12" s="9">
         <f>IF(N12="",0,IF(O12="",0,IF(N12="低",$N$24,IF(N12="中",$N$25,$N$26))*IF(O12="小",$O$24,IF(O12="中",$O$25,$O$26))))</f>
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30331,30 +30166,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="89" t="s">
-        <v>87</v>
+      <c r="E13" s="88" t="s">
+        <v>103</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="89" t="s">
-        <v>106</v>
+      <c r="F13" s="89"/>
+      <c r="G13" s="88" t="s">
+        <v>104</v>
       </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="22" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="P13" s="9">
         <f>IF(N13="",0,IF(O13="",0,IF(N13="低",$N$24,IF(N13="中",$N$25,$N$26))*IF(O13="小",$O$24,IF(O13="中",$O$25,$O$26))))</f>
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30365,32 +30202,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="89" t="s">
-        <v>110</v>
+      <c r="E14" s="88" t="s">
+        <v>106</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="89" t="s">
-        <v>61</v>
+      <c r="F14" s="89"/>
+      <c r="G14" s="88" t="s">
+        <v>107</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="89" t="s">
-        <v>65</v>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88" t="s">
+        <v>108</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="89"/>
       <c r="M14" s="22" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="22" t="s">
-        <v>77</v>
-      </c>
       <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>360</v>
+        <f>IF(N14="",0,IF(O14="",0,IF(N14="低",$N$24,IF(N14="中",$N$25,$N$26))*IF(O14="小",$O$24,IF(O14="中",$O$25,$O$26))))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30401,32 +30238,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>IF(N15="",0,IF(O15="",0,IF(N15="低",$N$24,IF(N15="中",$N$25,$N$26))*IF(O15="小",$O$24,IF(O15="中",$O$25,$O$26))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -30437,14 +30262,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="89"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -30461,14 +30286,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="89"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="89"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -30485,14 +30310,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="89"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -30509,14 +30334,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="89"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -30533,14 +30358,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="89"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -30557,14 +30382,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -30578,14 +30403,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -30593,7 +30418,7 @@
       </c>
       <c r="P22" s="9">
         <f>SUM(P8:P21)</f>
-        <v>2220</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -30923,6 +30748,41 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -30939,41 +30799,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -31119,21 +30944,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="92" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="96" t="s">
+      <c r="F6" s="91"/>
+      <c r="G6" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -31145,21 +30970,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
-        <v>95</v>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
+        <v>83</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="95" t="s">
-        <v>96</v>
+      <c r="F7" s="98"/>
+      <c r="G7" s="99" t="s">
+        <v>84</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -31169,21 +30994,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98" t="s">
-        <v>63</v>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
+        <v>61</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="95" t="s">
-        <v>104</v>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99" t="s">
+        <v>92</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -31193,21 +31018,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="97" t="s">
-        <v>89</v>
+      <c r="C9" s="96" t="s">
+        <v>77</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98" t="s">
-        <v>91</v>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97" t="s">
+        <v>79</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="95" t="s">
-        <v>102</v>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
+        <v>90</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -31217,21 +31042,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="97" t="s">
-        <v>90</v>
+      <c r="C10" s="96" t="s">
+        <v>78</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98" t="s">
-        <v>92</v>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
+        <v>80</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="95" t="s">
-        <v>103</v>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99" t="s">
+        <v>91</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -31241,21 +31066,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98" t="s">
-        <v>69</v>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
+        <v>64</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="95" t="s">
-        <v>105</v>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99" t="s">
+        <v>93</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -31265,15 +31090,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -31283,15 +31108,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -31301,15 +31126,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -31321,15 +31146,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -31603,7 +31428,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -31728,7 +31553,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -31775,14 +31600,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -31798,16 +31625,14 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/【提出】PM演習_外部設計書_矢吹研A班.xlsx
+++ b/【提出】PM演習_外部設計書_矢吹研A班.xlsx
@@ -1932,7 +1932,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1941,19 +1947,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1965,10 +1968,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29955,20 +29955,20 @@
       <c r="D7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="F7" s="94"/>
+      <c r="G7" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="92" t="s">
         <v>21</v>
       </c>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
-      <c r="L7" s="91"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="27" t="s">
         <v>22</v>
       </c>
@@ -29990,20 +29990,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="88" t="s">
+      <c r="F8" s="91"/>
+      <c r="G8" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="91"/>
+      <c r="I8" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="22" t="s">
         <v>25</v>
       </c>
@@ -30026,20 +30026,20 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="88" t="s">
+      <c r="H9" s="91"/>
+      <c r="I9" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
       <c r="M9" s="22" t="s">
         <v>63</v>
       </c>
@@ -30062,18 +30062,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="88" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88" t="s">
+      <c r="H10" s="91"/>
+      <c r="I10" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
       <c r="M10" s="22" t="s">
         <v>63</v>
       </c>
@@ -30084,7 +30084,7 @@
         <v>72</v>
       </c>
       <c r="P10" s="9">
-        <f>IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
+        <f t="shared" ref="P10:P15" si="2">IF(N10="",0,IF(O10="",0,IF(N10="低",$N$24,IF(N10="中",$N$25,$N$26))*IF(O10="小",$O$24,IF(O10="中",$O$25,$O$26))))</f>
         <v>360</v>
       </c>
     </row>
@@ -30096,20 +30096,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="88" t="s">
+      <c r="F11" s="91"/>
+      <c r="G11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="88" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="89"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="22" t="s">
         <v>25</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="9">
-        <f>IF(N11="",0,IF(O11="",0,IF(N11="低",$N$24,IF(N11="中",$N$25,$N$26))*IF(O11="小",$O$24,IF(O11="中",$O$25,$O$26))))</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -30132,18 +30132,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="88" t="s">
+      <c r="E12" s="89"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="89"/>
-      <c r="I12" s="88" t="s">
+      <c r="H12" s="91"/>
+      <c r="I12" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
       <c r="M12" s="22" t="s">
         <v>76</v>
       </c>
@@ -30154,7 +30154,7 @@
         <v>26</v>
       </c>
       <c r="P12" s="9">
-        <f>IF(N12="",0,IF(O12="",0,IF(N12="低",$N$24,IF(N12="中",$N$25,$N$26))*IF(O12="小",$O$24,IF(O12="中",$O$25,$O$26))))</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -30166,20 +30166,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="88" t="s">
+      <c r="F13" s="91"/>
+      <c r="G13" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="88" t="s">
+      <c r="H13" s="91"/>
+      <c r="I13" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
       <c r="M13" s="22" t="s">
         <v>76</v>
       </c>
@@ -30190,7 +30190,7 @@
         <v>72</v>
       </c>
       <c r="P13" s="9">
-        <f>IF(N13="",0,IF(O13="",0,IF(N13="低",$N$24,IF(N13="中",$N$25,$N$26))*IF(O13="小",$O$24,IF(O13="中",$O$25,$O$26))))</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
     </row>
@@ -30202,20 +30202,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="89"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="91"/>
+      <c r="G14" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="88" t="s">
+      <c r="H14" s="91"/>
+      <c r="I14" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="89"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
       <c r="M14" s="22" t="s">
         <v>76</v>
       </c>
@@ -30226,7 +30226,7 @@
         <v>26</v>
       </c>
       <c r="P14" s="9">
-        <f>IF(N14="",0,IF(O14="",0,IF(N14="低",$N$24,IF(N14="中",$N$25,$N$26))*IF(O14="小",$O$24,IF(O14="中",$O$25,$O$26))))</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -30238,19 +30238,19 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="9">
-        <f>IF(N15="",0,IF(O15="",0,IF(N15="低",$N$24,IF(N15="中",$N$25,$N$26))*IF(O15="小",$O$24,IF(O15="中",$O$25,$O$26))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -30262,14 +30262,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
@@ -30286,14 +30286,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -30310,14 +30310,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -30334,14 +30334,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -30358,14 +30358,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
@@ -30382,14 +30382,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
@@ -30403,14 +30403,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
       <c r="M22" s="23"/>
       <c r="N22" s="24"/>
       <c r="O22" s="30" t="s">
@@ -30748,41 +30748,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -30799,6 +30764,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -30944,21 +30944,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="90" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="100" t="s">
+      <c r="F6" s="94"/>
+      <c r="G6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -30970,21 +30970,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="97"/>
+      <c r="E7" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -30994,21 +30994,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -31018,21 +31018,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="97" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -31042,21 +31042,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99" t="s">
+      <c r="F10" s="99"/>
+      <c r="G10" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -31066,21 +31066,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97" t="s">
+      <c r="D11" s="97"/>
+      <c r="E11" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99" t="s">
+      <c r="F11" s="99"/>
+      <c r="G11" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -31090,15 +31090,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -31108,15 +31108,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -31126,15 +31126,15 @@
     <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>42</v>
@@ -31146,15 +31146,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -31600,16 +31600,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E8:F8"/>
@@ -31625,14 +31623,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
